--- a/abn_data.xlsx
+++ b/abn_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>33159849402</t>
+          <t>18650343187</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,15 +483,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUGIS PTY LTD</t>
+          <t>GEWS EXTERMINATIONS PTY. LTD.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>65615234305</t>
+          <t>14614164519</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,11 +518,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ELITE PEST &amp; TERMITE SOLUTIONS PTY LTD</t>
+          <t>BLUEWATER CONTROL PTY LTD</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>58666480646</t>
+          <t>96077206583</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,15 +553,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SYDNEY TERMITE AND PEST CONTROL PTY LTD</t>
+          <t>CONTROL FILMS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>76100751924</t>
+          <t>90150760151</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,11 +588,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CORPORATE PEST MANAGEMENT PTY LIMITED</t>
+          <t>Compressor Controls Pty Ltd</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25618786968</t>
+          <t>79241789451</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -623,11 +623,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Proven Pest Control</t>
+          <t>EC Controls</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>34390709434</t>
+          <t>36117186240</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -658,15 +658,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SCORPEX PEST MANAGEMENT</t>
+          <t>INTENTIONAL CONTROL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18650343187</t>
+          <t>21152404530</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -693,11 +693,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>APHR PEST CONTROL SERVICES PTY LTD</t>
+          <t>KEYSTONE CONTROLS PTY. LTD.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>27667948254</t>
+          <t>80076354839</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -728,15 +728,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CERTIFIED PEST MANAGEMENT (NSW) PTY LTD</t>
+          <t>AUSTRALIAN BRAKE CONTROLS PTY LIMITED</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>89616440567</t>
+          <t>83064638197</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -763,15 +763,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ECOFRIENDLY PEST CONTROL AUSTRALIA PTY. LTD.</t>
+          <t>BROOKFIELD JOHNSON CONTROLS PTY LTD</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>55347250776</t>
+          <t>74010230716</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -798,15 +798,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mid Coast Rural Pest Control</t>
+          <t>C &amp; D CONTROL CONSULTANTS</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -823,7 +823,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25618786968</t>
+          <t>14642088097</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -833,11 +833,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Proven Pest Control and Termite Inspections</t>
+          <t>CAPITAL PROJECT CONTROL PTY LTD</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21629891095</t>
+          <t>25050066398</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -868,15 +868,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RONIN FERAL PEST AND VERMIN CONTROL</t>
+          <t>COMFORT CONTROL SHUTTERS</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -893,7 +893,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>87896472922</t>
+          <t>27006633781</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -903,11 +903,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PESTO</t>
+          <t>CONTROL RISKS GROUP PTY LTD</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16529162054</t>
+          <t>24004196909</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -938,15 +938,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The Trustee for Pasta e Sugo Trust</t>
+          <t>DEMITO CREDIT CONTROL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>69650608718</t>
+          <t>50007519646</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -973,15 +973,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RATH PTY LTD</t>
+          <t>ENGINEERED VALVES &amp; CONTROLS</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -998,7 +998,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12119877486</t>
+          <t>75164173764</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WILD LIFE SYDNEY</t>
+          <t>Ground Control Cafe</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>92163915008</t>
+          <t>13008525004</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1043,15 +1043,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wildlife Wanderer</t>
+          <t>IN-CONTROL SERVICES</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>92163915008</t>
+          <t>28616147089</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AUSTRALIAN WILDLIFE PARKS</t>
+          <t>INVESTMENT CONTROL SERVICES PTY. LTD.</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1103,7 +1103,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>84622814877</t>
+          <t>51613260272</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BLUE MOUNTAINS WILDLIFE</t>
+          <t>Lighting Controls Australia</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1138,7 +1138,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21001069469</t>
+          <t>36652810912</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FEATHERDALE WILDLIFE PARK</t>
+          <t>PROCESS CONTROL HOLDINGS PTY. LTD.</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1173,7 +1173,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>24661281465</t>
+          <t>69003631267</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GLOBAL WILDLIFE FUND LIMITED</t>
+          <t>PROJECT CONTROL GROUP PTY. LTD.</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1208,7 +1208,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12119877486</t>
+          <t>86004651512</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SYDNEY WILDLIFE WORLD PTY. LIMITED</t>
+          <t>RISK CONTROL CONSULTING</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1243,7 +1243,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>45759672206</t>
+          <t>55635423148</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WILD LIFE Conservation Fund</t>
+          <t>SELEC CONTROLS AUSTRALIA PTY LTD</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1278,7 +1278,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>64003688846</t>
+          <t>78003905093</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Wild Life Hamilton Island</t>
+          <t>WF ENERGY CONTROLS</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1313,7 +1313,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>13663237215</t>
+          <t>25050066398</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ELANOR WILDLIFE PARK FUND</t>
+          <t>AAA COMFORT CONTROL SHUTTERS</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>92163915008</t>
+          <t>18650343187</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ELANOR WILDLIFE PARK MANAGEMENT PTY LIMITED</t>
+          <t>APHR PEST CONTROL SERVICES PTY LTD</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1383,7 +1383,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>90107744771</t>
+          <t>46122178741</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FOUNDATION FOR NATIONAL PARKS AND WILDLIFE</t>
+          <t>BROOKFIELD JOHNSON CONTROLS AUSTRALIA PTY LTD</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1418,7 +1418,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>64003688846</t>
+          <t>89616440567</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HAMILTON ISLAND WILDLIFE PARK</t>
+          <t>ECOFRIENDLY PEST CONTROL AUSTRALIA PTY. LTD.</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1453,7 +1453,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13351382911</t>
+          <t>89164299825</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The Trustee for The Rothwell Wildlife Preservation Trust</t>
+          <t>INTEGRATED CONTROL TECHNOLOGY (AUSTRALIA) PTY LTD</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1488,7 +1488,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>48650630872</t>
+          <t>76160403127</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1498,15 +1498,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HUNTER VALLEY WILDLIFE PARK MANAGEMENT PTY LIMITED</t>
+          <t>JOHNSON CONTROLS AUSTRALIA GWS PTY LTD</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1523,7 +1523,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>40992163530</t>
+          <t>69654404120</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1533,11 +1533,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The Trustee for Hunter Valley Wildlife Park Property Trust</t>
+          <t>Odour Control Systems International Limited</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>87630743538</t>
+          <t>19125236375</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BUSINESS BEES PTY LTD</t>
+          <t>PROJECT CONTROL GROUP HOLDINGS PTY LIMITED</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>59064958434</t>
+          <t>71122172730</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1603,15 +1603,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bees at Revelwood</t>
+          <t>SARGENT TRAFFIC CONTROL MANAGEMENT</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1628,7 +1628,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>80661549891</t>
+          <t>64956505353</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1638,11 +1638,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CLEANING BEES AUSTRALIA PTY LTD</t>
+          <t>THE TRUSTEE FOR MEDICAL CONTROL CENTRE TRUST</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>22631990684</t>
+          <t>84087400379</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1673,11 +1673,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SPIDER VEINS AUSTRALIA PTY LTD</t>
+          <t>TICA DEFAULT TENANCY CONTROL PTY LTD</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>39145345973</t>
+          <t>61115586224</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BUZZ OFF TERMITES &amp; PEST MANAGEMENT PTY LTD</t>
+          <t>BROOKFIELD JOHNSON CONTROLS PARRAMATTA JUSTICE PTY LTD</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1726,14 +1726,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>56704601651</t>
+          <t>35160898128</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1743,15 +1743,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DAD'S pest &amp; termite management</t>
+          <t>COMBINED CONTROL CENTRE SOCIAL CLUB</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1761,14 +1761,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>12624208348</t>
+          <t>25618786968</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1778,11 +1778,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NSW Termite &amp; Pest Control</t>
+          <t>Proven Pest Control and Termite Inspections</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1796,14 +1796,14 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>31795026364</t>
+          <t>21629891095</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1813,11 +1813,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>279 PEST CONTROL</t>
+          <t>RONIN FERAL PEST AND VERMIN CONTROL</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1831,14 +1831,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>27389834144</t>
+          <t>93499694918</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AARROW PEST MANAGEMENT</t>
+          <t>The Trustee for CORPORATE FLEET CONTROL UNIT TRUST</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1866,14 +1866,14 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>66860926771</t>
+          <t>89144014207</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1883,11 +1883,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ABSOLUTE PEST CONTROL</t>
+          <t>The Trustee for Control B No.1 Trust</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1901,14 +1901,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>32616143867</t>
+          <t>76160403127</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1918,15 +1918,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ABSOLUTE PEST SOLUTIONS PTY LTD</t>
+          <t>BROOKFIELD JOHNSON CONTROLS ANZ PTY LTD</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1936,14 +1936,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>41002108714</t>
+          <t>85127491938</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1953,11 +1953,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ALLFIELDS PEST CONTROL</t>
+          <t>RACEKITE UNIT TRUST ACCOUNTS CONTROL MANAGEMENT SERVICES</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1971,14 +1971,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>80269124164</t>
+          <t>35160898128</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Allrid Pest Services</t>
+          <t>SYDNEY TRAIN COMBINED CONTROL CENTRE SOCIAL CLUB</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2006,14 +2006,14 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>98309312341</t>
+          <t>76100751924</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>COMMERCIAL PEST MANAGEMENT</t>
+          <t>CORPORATE PEST MANAGEMENT PTY LIMITED</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2041,14 +2041,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>56147643863</t>
+          <t>46103449985</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DRAKE PEST CONTROL</t>
+          <t>PERMANENT PEST CONTROL</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2076,14 +2076,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>66629565742</t>
+          <t>25618786968</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DYNAMIC PEST SERVICES PTY LTD</t>
+          <t>Proven Pest Control</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2111,14 +2111,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>69654459480</t>
+          <t>34390709434</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EXPERT PEST SERVICES PTY LTD</t>
+          <t>SCORPEX PEST MANAGEMENT</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2146,14 +2146,14 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>73186266883</t>
+          <t>27667948254</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2163,11 +2163,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Extinct pest control</t>
+          <t>CERTIFIED PEST MANAGEMENT (NSW) PTY LTD</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2181,14 +2181,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>93609321431</t>
+          <t>65615234305</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2198,11 +2198,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GLOBAL PEST MAINTENANCE PTY LIMITED</t>
+          <t>ELITE PEST &amp; TERMITE SOLUTIONS PTY LTD</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2216,14 +2216,14 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>21383077868</t>
+          <t>55347250776</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2233,11 +2233,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GNS PEST MANAGEMENT</t>
+          <t>Mid Coast Rural Pest Control</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2251,14 +2251,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>21284652323</t>
+          <t>58666480646</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HOMERUN PEST CONTROL</t>
+          <t>SYDNEY TERMITE AND PEST CONTROL PTY LTD</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2286,14 +2286,14 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>83997701682</t>
+          <t>87896472922</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2303,11 +2303,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jay Pest Control</t>
+          <t>PESTO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2321,14 +2321,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>51551241164</t>
+          <t>16529162054</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2338,11 +2338,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MALA PEST CONTROL</t>
+          <t>The Trustee for Pasta e Sugo Trust</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2356,14 +2356,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>44602019541</t>
+          <t>20648482141</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2373,15 +2373,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MRK PEST MANAGEMENT</t>
+          <t>201 Pesto</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2391,14 +2391,14 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>97497525977</t>
+          <t>25189562191</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NATIVE PEST CONTROL</t>
+          <t>The Trustee for Roden Family Foundation</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2426,14 +2426,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>93423903218</t>
+          <t>55106564854</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NORWESTERN PEST MANAGEMENT</t>
+          <t>MY TRAVELING BUG</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2461,14 +2461,14 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>12624208348</t>
+          <t>92626112898</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2478,11 +2478,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NSW PEST CONTROL</t>
+          <t>ANTHONY D'ARCY</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2496,14 +2496,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>68993251345</t>
+          <t>36155087899</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2513,11 +2513,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PP PEST CONTROL</t>
+          <t>Anton Advisory Pty Limited</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2531,14 +2531,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>14289059550</t>
+          <t>72747051404</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2548,11 +2548,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Pure Pest Solutions</t>
+          <t>Antons Bars</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2566,14 +2566,14 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>16142114910</t>
+          <t>38104514150</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2583,11 +2583,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>REEHAL PEST SOLUTIONS</t>
+          <t>ANTHONY ABRAHAMS LAWYERS PTY LIMITED</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2601,14 +2601,14 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>54643594067</t>
+          <t>63608092164</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2618,11 +2618,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SHAYONA PEST CONTROL PTY LTD</t>
+          <t>ANTHONY KNOX &amp; ASSOCIATES PTY LTD</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2636,14 +2636,14 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>28152977387</t>
+          <t>43636950047</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2653,11 +2653,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SUMMIT PEST CONTROL</t>
+          <t>ANTHONY VAVAYIS &amp; ASSOCIATES PTY LTD</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2671,14 +2671,14 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>77070423040</t>
+          <t>96619047120</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2688,11 +2688,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>TOTAL PEST COMMERCIAL</t>
+          <t>ANTON PAAR AUSTRALIA PTY. LTD.</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2706,14 +2706,14 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>83606108169</t>
+          <t>31965919165</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2723,11 +2723,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>WILSON'S PEST CONTROL PTY LTD</t>
+          <t>Abrahim Antoinette and Mark</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2741,14 +2741,14 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>41646461706</t>
+          <t>37493709938</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2758,11 +2758,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BEES KNEES PEST CONTROL</t>
+          <t>ANTHONY AUSTRALIA SUPERANNUATION FUND</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2776,14 +2776,14 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>38362585393</t>
+          <t>44611174933</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2793,11 +2793,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>KILL-EM PEST CONTROL</t>
+          <t>Anthony Scarcella, Lawyer &amp; Mediator</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2811,14 +2811,14 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>39922406703</t>
+          <t>79112459099</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2828,11 +2828,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PEST CONTROL &amp; MAINTENANCE SERVICES</t>
+          <t>Anthony Sim Lawyers &amp; Associates</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2846,14 +2846,14 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>32181302409</t>
+          <t>76693492332</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2863,11 +2863,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RED LINE PEST CONTROL</t>
+          <t>GIUSEPPE AIOSSA &amp; ANTONIO MAUCERI</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>52623723937</t>
+          <t>56967636779</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2898,11 +2898,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SEEK AND DESTROY PEST CONTROL PTY LIMITED</t>
+          <t>MICHAEL ARVYTHIS &amp; TONY NICOULAOU</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>97608206953</t>
+          <t>72747051404</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2933,11 +2933,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>STAR 200 PEST CONTROL PTY LTD</t>
+          <t>The trustee for Antons Bars Unit Trust</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2951,14 +2951,14 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>47626666224</t>
+          <t>35397114811</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2968,11 +2968,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TANILBA BAY PEST CONTROL</t>
+          <t>ANTONY JEFFREY &amp; ASSOCIATES SUPER FUND</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2986,14 +2986,14 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>54072873726</t>
+          <t>51893409022</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3003,11 +3003,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TOTAL PEST MANAGEMENT SYDNEY PTY LTD</t>
+          <t>Anthony John &amp; Jennifer Alena McCusker</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3021,14 +3021,14 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>83606108169</t>
+          <t>30695234964</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3038,11 +3038,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>WILSONS PEST CONTROL SYDNEY</t>
+          <t>Antonio Joaquim Araujo &amp; Normanda Araujo</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3056,14 +3056,14 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>37817133294</t>
+          <t>22066871218</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3073,11 +3073,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BAZZ THE BUG MAN PEST MANAGEMENT</t>
+          <t>N ANTHONY PACE ACCOUNTING SERVICES PTY LTD</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3091,14 +3091,14 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>83606108169</t>
+          <t>37186005713</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3108,11 +3108,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COMMERCIAL PEST CONTROL WESTERN SYDNEY</t>
+          <t>The Trustee for The Roots Apparel Trust</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3126,14 +3126,14 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>26336549509</t>
+          <t>69650608718</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3143,11 +3143,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>EVEREST CARPET CLEANING AND PEST CONTROL</t>
+          <t>RATH PTY LTD</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3161,14 +3161,14 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>34328410093</t>
+          <t>18083859616</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3178,15 +3178,15 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>FIRST NATIONAL PEST MANAGEMENT SERVICES</t>
+          <t>Rozelle Flea Markets</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3196,14 +3196,14 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>15057285236</t>
+          <t>26166388996</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3213,15 +3213,15 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PEST IN PEACE PEST CONTROL</t>
+          <t>Spider Finance</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3231,14 +3231,14 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>28152977387</t>
+          <t>22631990684</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3248,11 +3248,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SUMMIT PEST CONTROL &amp; CLEANING SERVICES</t>
+          <t>SPIDER VEINS AUSTRALIA PTY LTD</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3266,14 +3266,14 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>50885934337</t>
+          <t>60616297904</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3283,11 +3283,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Termikill pest control and handyman services</t>
+          <t>SPYDER (BC) BIDCO PTY LTD</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3301,14 +3301,14 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>75637626076</t>
+          <t>81616379867</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3318,11 +3318,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A- PLUS TERMITE MANAGEMENT &amp; PEST SOLUTIONS</t>
+          <t>SPYDER (BC) MIDCO PTY LTD</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3336,14 +3336,14 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>21383077868</t>
+          <t>58097093117</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3353,15 +3353,15 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GNS PEST MANAGEMENT "THE BUG STOPS HERE!"</t>
+          <t>PREVENTION PLUS</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3371,14 +3371,14 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>47626666224</t>
+          <t>64461352676</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3388,11 +3388,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jim's Termite &amp; Pest Control (Port Stephens)</t>
+          <t>SUICIDE PREVENTION AUSTRALIA LIMITED</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3406,14 +3406,14 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>87501122769</t>
+          <t>32939127868</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3423,11 +3423,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Pesto love</t>
+          <t>crisis prevention institute inc</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3441,14 +3441,14 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>61177589035</t>
+          <t>81697904106</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3458,15 +3458,15 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>KOOKABURRA RESIDENTIAL AND STRATA LAWN MOWING AND PEST CONTROL</t>
+          <t>CHILD ABUSE PREVENTION SERVICE</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3476,14 +3476,14 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>31955405360</t>
+          <t>81158968391</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3493,11 +3493,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BUGS OR US TERMITES AND PEST</t>
+          <t>GLOBAL WELLNESS &amp; PREVENTION PROTOCOLS PTY LIMITED</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3511,14 +3511,14 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>64635943289</t>
+          <t>82002844448</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3528,15 +3528,15 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PROGUARD PEST AND TERMITE SOLUTIONS PTY LTD</t>
+          <t>MISCARRIAGE PREVENTION PROGRAM AUSTRALIA</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3546,14 +3546,14 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>17638763461</t>
+          <t>65155287657</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3563,11 +3563,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DAVES PEST CONTROL PTY LTD</t>
+          <t>ONLINE HATE PREVENTION INSTITUTE</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3581,14 +3581,14 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>13641828990</t>
+          <t>81697904106</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3598,11 +3598,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PEST SOLUTIONS AND MANAGEMENT</t>
+          <t>CHILD ABUSE PREVENTION SERVICE (SYDNEY) INC</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3616,14 +3616,14 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>88651582802</t>
+          <t>21314636233</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3633,11 +3633,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ENVIRO SPRAY PEST MANAGEMENT</t>
+          <t>AWARE - SEXUAL HARASSMENT AND SEXUAL MISCONDUCT PREVENTION</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3651,14 +3651,14 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>17638763461</t>
+          <t>64461352676</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3668,15 +3668,15 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sydney Pest Control Xterminator</t>
+          <t>SUICIDE PREVENTION AUSTRALIA S P A</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3686,1757 +3686,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2150</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>56320370547</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>A&amp;AA Pest Control Service</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>88</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>2150</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>24497011246</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>ALL WAYS PEST CONTROL &amp; MANAGEMENT</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>88</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2150</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>49947820098</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Jim's Termite &amp; Pest Control (Burwood)</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>88</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2150</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>96618442050</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Jim's Termite &amp; Pest Control (North Manly)</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>85</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>2150</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>20770707468</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>National Parks and Wildlife Service</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>91</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>2150</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>81268943792</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>National Parks and Wildlife Conservation Trust.</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>88</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>2150</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>67815028601</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>The Trustee for Are Aye Bee's Superannuation Fund</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>88</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>2150</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>14130619893</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>ULTRA PEST &amp; TERMITES</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>94</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>68003167511</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>THERMIT</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>82</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>17729071036</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>TERMITE DETECTION AND KILLING SYSTEMS</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>81</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>43003397519</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>PEST BLASTERS</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>97</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>42641319733</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Pest Affects</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>97</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>65146804015</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>VITAL PEST PTY LTD</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>97</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>91551552416</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>AUSTRALIAN PEST SPECIALISTS</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>94</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>22682990510</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>BLAST-A-PEST</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>94</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>62121208848</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>ENVIROCENTRAL PEST CONTROL</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>94</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>59066178413</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>FLATLINE PEST CONTROL</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>94</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>42651279293</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>GMU PEST CONTROL PTY LTD</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>94</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>30126860928</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>NINJA PEST CONTROL</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>94</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>85147215638</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>NINJA PEST MANAGEMENT PTY LTD</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>94</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>87081468331</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>PACIFIC PEST MANAGEMENT PTY. LIMITED</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>94</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>61639331436</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>PHANTOM PEST SOLUTIONS PTY LTD</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>94</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>36684307675</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>SUSTAINABLE PEST CONTROL</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>94</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>59937389573</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Scott's Pest Solutions</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>94</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>20972990939</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>DUNN WELL PEST CONTROL</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>91</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>43003397519</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Forensic pest and building reports</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>91</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>87081468331</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>GOSFORD CITY PEST CONTROL</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>91</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>95694088668</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>J &amp; B PEST CONTROL</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>91</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>98102491967</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>James White Pest Management Pty Limited</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>91</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>56324343608</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>PESTMAC PEST CONTROL SOLUTIONS</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>91</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>99169030297</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>THE TERMINATOR PEST CONTROL SOLUTIONS</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>91</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>43003397519</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>CENTRAL COAST TIMBER PEST REPORTS PTY LTD</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>88</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>97090861573</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>JK &amp; PB MORROW PEST CONTROL PTY LIMITED</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>88</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>99169030297</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>THE TERMINATOR TERMITE AND PEST CONTROL SOLUTIONS</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>88</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>35092369536</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>A.T.S. PEST CONTROL SERVICES</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>85</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>51417871203</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>AUSTRALIA'S WILDLIFE ARK INC</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>94</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>30331358426</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>The Trustee for Calga Wildlife Investments</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>94</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>63713943768</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>kym beckton wildlife</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>94</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>25662583787</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>AUSTRALIAN WALKABOUT WILDLIFE PARK PTY LTD</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>91</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>29205472347</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Australian Wildlife Displays and Presentations</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>91</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>31471127176</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>MARINE WILDLIFE CENTRAL COAST</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>91</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>51417871203</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Mongo Valley Wildlife Sanctuary</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>91</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>98411301250</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>The Trustee for Walkabout Wildlife Conservation Foundation</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>91</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>30285688353</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Wildlife Carers Support and Eduction</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>91</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>31471127176</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>MARINE WILDLIFE RESCUE CENTRAL COAST</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>88</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>95214926369</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Marine Wildlife Rescue Central Coast</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>88</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>40155085169</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>WILDLIFE ANIMAL RESCUE AND CARE SOCIETY INC.</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>88</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>25714209974</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>BUCKETTY BEES</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>97</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>36162241232</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Bundabah Bees</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>97</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>97480976257</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Southern Cross Bees and Beekeeping</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>91</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>2250</t>
+          <t>2000</t>
         </is>
       </c>
     </row>

--- a/abn_data.xlsx
+++ b/abn_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2328,7 +2328,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>65615234305</t>
+          <t>87896472922</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2338,11 +2338,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ELITE PEST &amp; TERMITE SOLUTIONS PTY LTD</t>
+          <t>PESTO</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>58666480646</t>
+          <t>20648482141</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2373,15 +2373,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SYDNEY TERMITE AND PEST CONTROL PTY LTD</t>
+          <t>201 Pesto</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2398,7 +2398,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>17624859427</t>
+          <t>78545727129</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BEE BLOCKCHAIN FOUNDATION PTY LTD</t>
+          <t>Aussie Bees</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>65073750115</t>
+          <t>87630743538</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2443,15 +2443,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BUSY BEE WASTEWATER</t>
+          <t>BUSINESS BEES PTY LTD</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2468,7 +2468,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>19666785495</t>
+          <t>59064958434</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2478,11 +2478,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BEE SPACE MUSIC BAR PTY LTD</t>
+          <t>Bees at Revelwood</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>62603188478</t>
+          <t>12610169590</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2513,15 +2513,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MAYME AUSTRALIAN SKINCARE (BEE) PTY LTD</t>
+          <t>Birds Bees and Bunnies</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2538,7 +2538,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>84131403980</t>
+          <t>80661549891</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2548,11 +2548,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BAY BEE CINO DOUBLE BAY</t>
+          <t>CLEANING BEES AUSTRALIA PTY LTD</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>83147021235</t>
+          <t>65615234305</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2583,15 +2583,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>The Trustee for BILLIE BILLIE BUMBLE BEE UNIT TRUST</t>
+          <t>ELITE PEST &amp; TERMITE SOLUTIONS PTY LTD</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>37186005713</t>
+          <t>58666480646</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2618,11 +2618,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>The Trustee for The Roots Apparel Trust</t>
+          <t>SYDNEY TERMITE AND PEST CONTROL PTY LTD</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>69650608718</t>
+          <t>76100751924</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2653,11 +2653,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>RATH PTY LTD</t>
+          <t>CORPORATE PEST MANAGEMENT PTY LIMITED</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>92626112898</t>
+          <t>46103449985</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2688,15 +2688,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ANTHONY D'ARCY</t>
+          <t>PERMANENT PEST CONTROL</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2713,7 +2713,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>36155087899</t>
+          <t>25618786968</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2723,11 +2723,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Anton Advisory Pty Limited</t>
+          <t>Proven Pest Control</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>72747051404</t>
+          <t>34390709434</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2758,11 +2758,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Antons Bars</t>
+          <t>SCORPEX PEST MANAGEMENT</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>38104514150</t>
+          <t>27667948254</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2793,11 +2793,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ANTHONY ABRAHAMS LAWYERS PTY LIMITED</t>
+          <t>CERTIFIED PEST MANAGEMENT (NSW) PTY LTD</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>63608092164</t>
+          <t>55347250776</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2828,11 +2828,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ANTHONY KNOX &amp; ASSOCIATES PTY LTD</t>
+          <t>Mid Coast Rural Pest Control</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>43636950047</t>
+          <t>16529162054</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2863,11 +2863,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ANTHONY VAVAYIS &amp; ASSOCIATES PTY LTD</t>
+          <t>The Trustee for Pasta e Sugo Trust</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>96619047120</t>
+          <t>55106564854</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2898,15 +2898,15 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ANTON PAAR AUSTRALIA PTY. LTD.</t>
+          <t>MY TRAVELING BUG</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2923,7 +2923,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>31965919165</t>
+          <t>18650343187</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2933,15 +2933,15 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Abrahim Antoinette and Mark</t>
+          <t>GEWS EXTERMINATIONS PTY. LTD.</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2958,7 +2958,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>37493709938</t>
+          <t>69650608718</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2968,11 +2968,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ANTHONY AUSTRALIA SUPERANNUATION FUND</t>
+          <t>RATH PTY LTD</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>44611174933</t>
+          <t>26166388996</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Anthony Scarcella, Lawyer &amp; Mediator</t>
+          <t>Spider Finance</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>79112459099</t>
+          <t>22631990684</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3038,11 +3038,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Anthony Sim Lawyers &amp; Associates</t>
+          <t>SPIDER VEINS AUSTRALIA PTY LTD</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3055,1861 +3055,6 @@
         </is>
       </c>
       <c r="G75" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>76693492332</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>GIUSEPPE AIOSSA &amp; ANTONIO MAUCERI</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>86</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>56967636779</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>MICHAEL ARVYTHIS &amp; TONY NICOULAOU</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>86</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>72747051404</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>The trustee for Antons Bars Unit Trust</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>86</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>35397114811</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ANTONY JEFFREY &amp; ASSOCIATES SUPER FUND</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>83</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>51893409022</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Anthony John &amp; Jennifer Alena McCusker</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>83</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>30695234964</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Antonio Joaquim Araujo &amp; Normanda Araujo</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>83</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>22066871218</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>N ANTHONY PACE ACCOUNTING SERVICES PTY LTD</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>83</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>26166388996</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Spider Finance</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>97</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>22631990684</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>SPIDER VEINS AUSTRALIA PTY LTD</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>94</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>60616297904</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>SPYDER (BC) BIDCO PTY LTD</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>82</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>81616379867</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>SPYDER (BC) MIDCO PTY LTD</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>82</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>18650343187</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>GEWS EXTERMINATIONS PTY. LTD.</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>91</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>76100751924</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>CORPORATE PEST MANAGEMENT PTY LIMITED</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>94</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>46103449985</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>PERMANENT PEST CONTROL</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>94</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>25618786968</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Proven Pest Control</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>94</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>34390709434</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>SCORPEX PEST MANAGEMENT</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>94</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>27667948254</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>CERTIFIED PEST MANAGEMENT (NSW) PTY LTD</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>91</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>55347250776</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Mid Coast Rural Pest Control</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>91</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>87896472922</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>PESTO</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>86</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>16529162054</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>The Trustee for Pasta e Sugo Trust</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>85</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>20648482141</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>201 Pesto</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>83</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>12119877486</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>WILD LIFE SYDNEY</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>97</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>21001069469</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>WILDLIFE WANDERER</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>97</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>92163915008</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Wildlife Wanderer</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>97</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>92163915008</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>AUSTRALIAN WILDLIFE PARKS</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>94</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>84622814877</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BLUE MOUNTAINS WILDLIFE</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>94</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>21001069469</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>FEATHERDALE WILDLIFE PARK</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>94</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>24661281465</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>GLOBAL WILDLIFE FUND LIMITED</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>94</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>92008632764</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>SYDNEY WILDLIFE WORLD</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>94</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>12119877486</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>SYDNEY WILDLIFE WORLD PTY. LIMITED</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>94</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>45759672206</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>WILD LIFE Conservation Fund</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>94</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>64003688846</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Wild Life Hamilton Island</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>94</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>13663237215</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>ELANOR WILDLIFE PARK FUND</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>91</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>92163915008</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>ELANOR WILDLIFE PARK MANAGEMENT PTY LIMITED</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>91</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>90107744771</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>FOUNDATION FOR NATIONAL PARKS AND WILDLIFE</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>91</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>64003688846</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>HAMILTON ISLAND WILDLIFE PARK</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>91</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>41583787394</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>The Trustee for Elanor Wildlife Park Fund</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>91</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>13351382911</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>The Trustee for The Rothwell Wildlife Preservation Trust</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>91</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>90107744771</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>FOUNDATION FOR NATIONAL PARKS &amp; WILDLIFE (ADMINISTRATOR APPOINTED)</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>88</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>48650630872</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>HUNTER VALLEY WILDLIFE PARK MANAGEMENT PTY LIMITED</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>88</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>40992163530</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>The Trustee for Hunter Valley Wildlife Park Property Trust</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>88</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>25189562191</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>The Trustee for Roden Family Foundation</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>82</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>78633482998</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Thick Chick</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>83</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>18083859616</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Rozelle Flea Markets</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>94</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>25002589442</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>BIRD &amp; BIRD PTY LTD</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>97</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>53215003671</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Bird &amp; Bird</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>97</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>25002589442</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>BIRD &amp; BIRD SERVICES PTY LTD</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>94</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>53626019412</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>KITE BIRD AUSTRALIA PTY LTD</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>94</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>54661091612</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>RED BIRD CHINESE</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>94</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>52993472943</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>The Trustee for Bird &amp; Bird Services Trust</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>91</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>49829811733</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>R.J BIRD &amp; S.J BIRD</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>85</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>74161683889</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>BAIRD AUSTRALIA PTY LIMITED</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>83</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>92141919959</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Baird Australia Pty Ltd</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>83</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>NSW</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
         <is>
           <t>2000</t>
         </is>

--- a/abn_data.xlsx
+++ b/abn_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="189">
   <si>
     <t>ABN</t>
   </si>
@@ -37,595 +37,550 @@
     <t>Postcode</t>
   </si>
   <si>
-    <t>31955405360</t>
-  </si>
-  <si>
-    <t>26731872661</t>
-  </si>
-  <si>
-    <t>14642590681</t>
-  </si>
-  <si>
-    <t>78138659604</t>
-  </si>
-  <si>
-    <t>99648674659</t>
-  </si>
-  <si>
-    <t>56670096018</t>
-  </si>
-  <si>
-    <t>11658527434</t>
-  </si>
-  <si>
-    <t>84132953596</t>
-  </si>
-  <si>
-    <t>23649832575</t>
-  </si>
-  <si>
-    <t>63456500551</t>
-  </si>
-  <si>
-    <t>17638763461</t>
-  </si>
-  <si>
-    <t>30126860928</t>
-  </si>
-  <si>
-    <t>13641828990</t>
-  </si>
-  <si>
-    <t>63807012100</t>
-  </si>
-  <si>
-    <t>76115177289</t>
-  </si>
-  <si>
-    <t>88651582802</t>
-  </si>
-  <si>
-    <t>64635943289</t>
-  </si>
-  <si>
-    <t>56320370547</t>
-  </si>
-  <si>
-    <t>24497011246</t>
-  </si>
-  <si>
-    <t>49947820098</t>
-  </si>
-  <si>
-    <t>96618442050</t>
-  </si>
-  <si>
-    <t>40112316953</t>
-  </si>
-  <si>
-    <t>83603346069</t>
-  </si>
-  <si>
-    <t>65632014254</t>
-  </si>
-  <si>
-    <t>57169067789</t>
-  </si>
-  <si>
-    <t>23160026255</t>
-  </si>
-  <si>
-    <t>66091422758</t>
-  </si>
-  <si>
-    <t>88158819366</t>
-  </si>
-  <si>
-    <t>46662069758</t>
-  </si>
-  <si>
-    <t>90165557317</t>
-  </si>
-  <si>
-    <t>97957696412</t>
-  </si>
-  <si>
-    <t>90054321167</t>
-  </si>
-  <si>
-    <t>31451235876</t>
-  </si>
-  <si>
-    <t>24113566733</t>
-  </si>
-  <si>
-    <t>29651158539</t>
-  </si>
-  <si>
-    <t>37670477086</t>
-  </si>
-  <si>
-    <t>30607906990</t>
-  </si>
-  <si>
-    <t>93189799469</t>
-  </si>
-  <si>
-    <t>12119898930</t>
-  </si>
-  <si>
-    <t>98101337642</t>
-  </si>
-  <si>
-    <t>32624797940</t>
-  </si>
-  <si>
-    <t>36691806169</t>
-  </si>
-  <si>
-    <t>92124252526</t>
-  </si>
-  <si>
-    <t>58161462111</t>
-  </si>
-  <si>
-    <t>19665582570</t>
-  </si>
-  <si>
-    <t>95601146525</t>
-  </si>
-  <si>
-    <t>95622067216</t>
-  </si>
-  <si>
-    <t>46621012306</t>
-  </si>
-  <si>
-    <t>14619331083</t>
-  </si>
-  <si>
-    <t>47658430504</t>
-  </si>
-  <si>
-    <t>62912737744</t>
-  </si>
-  <si>
-    <t>46986016936</t>
-  </si>
-  <si>
-    <t>56784733957</t>
-  </si>
-  <si>
-    <t>99132796902</t>
-  </si>
-  <si>
-    <t>95132568453</t>
-  </si>
-  <si>
-    <t>94108150545</t>
-  </si>
-  <si>
-    <t>65154747387</t>
-  </si>
-  <si>
-    <t>87141711799</t>
-  </si>
-  <si>
-    <t>29641099068</t>
-  </si>
-  <si>
-    <t>86145470908</t>
-  </si>
-  <si>
-    <t>36662663827</t>
-  </si>
-  <si>
-    <t>63649007705</t>
-  </si>
-  <si>
-    <t>27432625234</t>
-  </si>
-  <si>
-    <t>90087165080</t>
-  </si>
-  <si>
-    <t>33609216757</t>
-  </si>
-  <si>
-    <t>96624794145</t>
-  </si>
-  <si>
-    <t>65600303553</t>
-  </si>
-  <si>
-    <t>80003882497</t>
-  </si>
-  <si>
-    <t>77603886782</t>
-  </si>
-  <si>
-    <t>20080441733</t>
-  </si>
-  <si>
-    <t>76674050690</t>
-  </si>
-  <si>
-    <t>51831705824</t>
-  </si>
-  <si>
-    <t>35167007721</t>
-  </si>
-  <si>
-    <t>46634485144</t>
-  </si>
-  <si>
-    <t>69147645261</t>
-  </si>
-  <si>
-    <t>91104267834</t>
-  </si>
-  <si>
-    <t>46127475790</t>
-  </si>
-  <si>
-    <t>98622251094</t>
-  </si>
-  <si>
-    <t>83097376362</t>
-  </si>
-  <si>
-    <t>67657205797</t>
-  </si>
-  <si>
-    <t>44615763605</t>
-  </si>
-  <si>
-    <t>11610284163</t>
-  </si>
-  <si>
-    <t>37616050670</t>
-  </si>
-  <si>
-    <t>51660765686</t>
-  </si>
-  <si>
-    <t>84152750742</t>
-  </si>
-  <si>
-    <t>48061101488</t>
-  </si>
-  <si>
-    <t>48130182722</t>
-  </si>
-  <si>
-    <t>92164452411</t>
-  </si>
-  <si>
-    <t>87093669884</t>
-  </si>
-  <si>
-    <t>99089760878</t>
-  </si>
-  <si>
-    <t>82626226524</t>
-  </si>
-  <si>
-    <t>65341782592</t>
-  </si>
-  <si>
-    <t>65567279902</t>
-  </si>
-  <si>
-    <t>87816520694</t>
+    <t>55106564854</t>
+  </si>
+  <si>
+    <t>69650608718</t>
+  </si>
+  <si>
+    <t>12119877486</t>
+  </si>
+  <si>
+    <t>21001069469</t>
+  </si>
+  <si>
+    <t>92163915008</t>
+  </si>
+  <si>
+    <t>84622814877</t>
+  </si>
+  <si>
+    <t>24661281465</t>
+  </si>
+  <si>
+    <t>92008632764</t>
+  </si>
+  <si>
+    <t>45759672206</t>
+  </si>
+  <si>
+    <t>64003688846</t>
+  </si>
+  <si>
+    <t>13663237215</t>
+  </si>
+  <si>
+    <t>90107744771</t>
+  </si>
+  <si>
+    <t>41583787394</t>
+  </si>
+  <si>
+    <t>13351382911</t>
+  </si>
+  <si>
+    <t>48650630872</t>
+  </si>
+  <si>
+    <t>40992163530</t>
+  </si>
+  <si>
+    <t>65615234305</t>
+  </si>
+  <si>
+    <t>58666480646</t>
+  </si>
+  <si>
+    <t>25618786968</t>
+  </si>
+  <si>
+    <t>14614164519</t>
+  </si>
+  <si>
+    <t>96077206583</t>
+  </si>
+  <si>
+    <t>90150760151</t>
+  </si>
+  <si>
+    <t>79241789451</t>
+  </si>
+  <si>
+    <t>36117186240</t>
+  </si>
+  <si>
+    <t>21152404530</t>
+  </si>
+  <si>
+    <t>80076354839</t>
+  </si>
+  <si>
+    <t>83064638197</t>
+  </si>
+  <si>
+    <t>74010230716</t>
+  </si>
+  <si>
+    <t>14642088097</t>
+  </si>
+  <si>
+    <t>25050066398</t>
+  </si>
+  <si>
+    <t>27006633781</t>
+  </si>
+  <si>
+    <t>24004196909</t>
+  </si>
+  <si>
+    <t>50007519646</t>
+  </si>
+  <si>
+    <t>75164173764</t>
+  </si>
+  <si>
+    <t>13008525004</t>
+  </si>
+  <si>
+    <t>28616147089</t>
+  </si>
+  <si>
+    <t>51613260272</t>
+  </si>
+  <si>
+    <t>36652810912</t>
+  </si>
+  <si>
+    <t>69003631267</t>
+  </si>
+  <si>
+    <t>86004651512</t>
+  </si>
+  <si>
+    <t>55635423148</t>
+  </si>
+  <si>
+    <t>78003905093</t>
+  </si>
+  <si>
+    <t>18650343187</t>
+  </si>
+  <si>
+    <t>46122178741</t>
+  </si>
+  <si>
+    <t>89616440567</t>
+  </si>
+  <si>
+    <t>89164299825</t>
+  </si>
+  <si>
+    <t>76160403127</t>
+  </si>
+  <si>
+    <t>69654404120</t>
+  </si>
+  <si>
+    <t>19125236375</t>
+  </si>
+  <si>
+    <t>71122172730</t>
+  </si>
+  <si>
+    <t>64956505353</t>
+  </si>
+  <si>
+    <t>84087400379</t>
+  </si>
+  <si>
+    <t>61115586224</t>
+  </si>
+  <si>
+    <t>35160898128</t>
+  </si>
+  <si>
+    <t>21629891095</t>
+  </si>
+  <si>
+    <t>93499694918</t>
+  </si>
+  <si>
+    <t>89144014207</t>
+  </si>
+  <si>
+    <t>85127491938</t>
+  </si>
+  <si>
+    <t>35602907228</t>
+  </si>
+  <si>
+    <t>58097093117</t>
+  </si>
+  <si>
+    <t>64461352676</t>
+  </si>
+  <si>
+    <t>32939127868</t>
+  </si>
+  <si>
+    <t>81697904106</t>
+  </si>
+  <si>
+    <t>81158968391</t>
+  </si>
+  <si>
+    <t>82002844448</t>
+  </si>
+  <si>
+    <t>65155287657</t>
+  </si>
+  <si>
+    <t>21314636233</t>
+  </si>
+  <si>
+    <t>76100751924</t>
+  </si>
+  <si>
+    <t>46103449985</t>
+  </si>
+  <si>
+    <t>34390709434</t>
+  </si>
+  <si>
+    <t>27667948254</t>
+  </si>
+  <si>
+    <t>55347250776</t>
+  </si>
+  <si>
+    <t>87896472922</t>
+  </si>
+  <si>
+    <t>16529162054</t>
+  </si>
+  <si>
+    <t>20648482141</t>
+  </si>
+  <si>
+    <t>25189562191</t>
+  </si>
+  <si>
+    <t>63004235063</t>
+  </si>
+  <si>
+    <t>78545727129</t>
+  </si>
+  <si>
+    <t>87630743538</t>
+  </si>
+  <si>
+    <t>59064958434</t>
+  </si>
+  <si>
+    <t>12610169590</t>
+  </si>
+  <si>
+    <t>80661549891</t>
   </si>
   <si>
     <t>Active</t>
   </si>
   <si>
-    <t>BUGS OR US TERMITES AND PEST</t>
-  </si>
-  <si>
-    <t>AVANTI SERVICES</t>
-  </si>
-  <si>
-    <t>AKORA BYRON BAY PTY LTD</t>
-  </si>
-  <si>
-    <t>BYRON THOMAS RECRUITMENT PTY. LTD.</t>
-  </si>
-  <si>
-    <t>BYRON BAY BEE SUPPLIES PTY LTD</t>
-  </si>
-  <si>
-    <t>APEX LEARNING PTY LTD</t>
-  </si>
-  <si>
-    <t>APEX LABOR SOLUTIONS PTY LTD</t>
-  </si>
-  <si>
-    <t>APEX PROJECTS AUSTRALIA PTY LTD</t>
-  </si>
-  <si>
-    <t>APEX SUPER AUDITS PTY LTD</t>
-  </si>
-  <si>
-    <t>The Trustee for The APEX PTP Trust</t>
-  </si>
-  <si>
-    <t>DAVES PEST CONTROL PTY LTD</t>
-  </si>
-  <si>
-    <t>NINJA PEST CONTROL</t>
-  </si>
-  <si>
-    <t>PEST SOLUTIONS AND MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Parramatta pest control</t>
-  </si>
-  <si>
-    <t>EFFECTIVE BUILDING &amp; PEST CONTROL</t>
-  </si>
-  <si>
-    <t>ENVIRO SPRAY PEST MANAGEMENT</t>
-  </si>
-  <si>
-    <t>OUR TOWN PEST CONTROL</t>
-  </si>
-  <si>
-    <t>PROGUARD PEST AND TERMITE SOLUTIONS PTY LTD</t>
-  </si>
-  <si>
-    <t>Sydney Pest Control Xterminator</t>
-  </si>
-  <si>
-    <t>A&amp;AA Pest Control Service</t>
-  </si>
-  <si>
-    <t>ALL WAYS PEST CONTROL &amp; MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Jim's Termite &amp; Pest Control (Burwood)</t>
-  </si>
-  <si>
-    <t>Jim's Termite &amp; Pest Control (North Manly)</t>
-  </si>
-  <si>
-    <t>ANMARO MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>ARIAM MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>BANMA MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>BRILLIANT MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>ABLE WEALTH MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>ACCESS MANAGEMENT SERVICES PTY. LIMITED</t>
-  </si>
-  <si>
-    <t>AFM MANAGEMENT SERVICES PTY LTD</t>
-  </si>
-  <si>
-    <t>AIRLEND LOAN MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>ALLIED MANAGEMENT REPORTING PTY LTD</t>
-  </si>
-  <si>
-    <t>ANT PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN PAYROLL MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>Australian Infrastructure Management</t>
-  </si>
-  <si>
-    <t>Avondale Management Services</t>
-  </si>
-  <si>
-    <t>BEDFORD Service Management</t>
-  </si>
-  <si>
-    <t>BENTLEY SCHOOL OF MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>BS INVESTMENT MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>Better Buildings Management</t>
-  </si>
-  <si>
-    <t>Better Buildings Management Pty Limited</t>
-  </si>
-  <si>
-    <t>Fifth Avenue Management Pty Limited</t>
-  </si>
-  <si>
-    <t>IQ ASSET MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>LAND MANAGEMENT BRANCH</t>
-  </si>
-  <si>
-    <t>MANAGING YOUR BUSINESS</t>
-  </si>
-  <si>
-    <t>METROPOLITAN ASSET MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>OLIVE BRANCH MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>PACREEF ASSET MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>PERFECT BUILDING MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>PRO BROS MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>RHC ASSET MGT PTY LTD</t>
-  </si>
-  <si>
-    <t>SMART BUILDING MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Social B Management</t>
-  </si>
-  <si>
-    <t>The Trustee for Blunt Management Trust</t>
-  </si>
-  <si>
-    <t>WASTE ASSETS MANAGEMENT CORPORATION</t>
-  </si>
-  <si>
-    <t>WEPA Building Management</t>
-  </si>
-  <si>
-    <t>avessta management solutions pty limited</t>
-  </si>
-  <si>
-    <t>avondale wealth management</t>
-  </si>
-  <si>
-    <t>A&amp;A WEALTH MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>ALLAN KELSO STRATA MANAGEMENT</t>
-  </si>
-  <si>
-    <t>AMEY MANAGEMENT PTY LTD SUPER FUND</t>
-  </si>
-  <si>
-    <t>ANZ MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>ARTAX INSTITUTE OF MANAGEMENT AND LEARNING</t>
-  </si>
-  <si>
-    <t>ARVENSYS GROUP INVESTMENT MANAGEMENT</t>
-  </si>
-  <si>
-    <t>AUSCORP RISK MANAGEMENT GROUP</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN CROWD MANAGEMENT SERVICES PTY LTD</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN TECHNO MANAGEMENT COLLEGE PTY LTD</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN TRAINING MANAGEMENT INSTITUTE PTY LTD</t>
-  </si>
-  <si>
-    <t>Australian College of Health &amp; Management</t>
-  </si>
-  <si>
-    <t>BUILDING ASSET MANAGEMENT SERVICES</t>
-  </si>
-  <si>
-    <t>Belle Property Management Drummoyne</t>
-  </si>
-  <si>
-    <t>Belle Property Management Parramatta</t>
-  </si>
-  <si>
-    <t>Building Management Committee - DP1224002</t>
-  </si>
-  <si>
-    <t>Building Management Statement - DP1206876</t>
-  </si>
-  <si>
-    <t>CLEAN AND SECURE BUILDING MANAGEMENT</t>
-  </si>
-  <si>
-    <t>COMMUNITY VENTURES ASSET MANAGEMENT</t>
-  </si>
-  <si>
-    <t>FISCAL ASSET MANAGEMENT EUROPE PTY LTD</t>
-  </si>
-  <si>
-    <t>GC ARCHITECTURE AND PROJECT MANAGEMENT</t>
-  </si>
-  <si>
-    <t>MANAGEMENT ADVISORY SERVICES (AUST) PTY LIMITED</t>
-  </si>
-  <si>
-    <t>Plan B Cleaning Management</t>
-  </si>
-  <si>
-    <t>REHABILITATION INJURY MANAGEMENT (AUSTRALIA) PTY LIMITED</t>
-  </si>
-  <si>
-    <t>RJB ASSET &amp; FACILITIES MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>TRUE BLUE ACCIDENT MANAGEMENT</t>
-  </si>
-  <si>
-    <t>TRUE BLUE ACCIDENT MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>UVEX SAFETY AUSTRALIA MANAGEMENT PTY LTD</t>
-  </si>
-  <si>
-    <t>AGILE INNOVATIVE MANAGEMENT CIVIL ENGINEERING PTY LTD</t>
-  </si>
-  <si>
-    <t>AUSTRALIA U RANGE INVEST MANAGEMENT PTY. LTD.</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN GRADUATE SCHOOL OF BUSINESS MANAGEMENT</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN INSTITUTE OF MANAGEMENT AND BUSINESS CONSULTING</t>
-  </si>
-  <si>
-    <t>AUSTRALIAN NATIONAL INSTITUTE OF MANAGEMENT AND TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>BRIDGES BMS (BUSINESS MANAGEMENT SERVICES)</t>
-  </si>
-  <si>
-    <t>CLEAN AND SECURE BUILDING AND FACILITIES MANAGEMENT</t>
-  </si>
-  <si>
-    <t>IMAC INJURY MANAGEMENT AND ASSESSMENT CENTRE PTY. LIMITED</t>
-  </si>
-  <si>
-    <t>SOVEREIGN PRIVATE FUNDS MANAGEMENT AUSTRALIA</t>
-  </si>
-  <si>
-    <t>THE BUILDING MANAGEMENT COMMITTEE - HENLEY ARCADE</t>
-  </si>
-  <si>
-    <t>The Trustee for REHABILITATION MANAGEMENT AUSTRALIA UNIT TRUST</t>
-  </si>
-  <si>
-    <t>Building Management Committee Deposited Plan 1182007</t>
-  </si>
-  <si>
-    <t>THE TRUSTEE FOR REHABILITATION INJURY MANAGEMENT AUSTRALIA UNIT TRUST</t>
+    <t>MY TRAVELING BUG</t>
+  </si>
+  <si>
+    <t>RATH PTY LTD</t>
+  </si>
+  <si>
+    <t>WILD LIFE SYDNEY</t>
+  </si>
+  <si>
+    <t>WILDLIFE WANDERER</t>
+  </si>
+  <si>
+    <t>Wildlife Wanderer</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN WILDLIFE PARKS</t>
+  </si>
+  <si>
+    <t>BLUE MOUNTAINS WILDLIFE</t>
+  </si>
+  <si>
+    <t>FEATHERDALE WILDLIFE PARK</t>
+  </si>
+  <si>
+    <t>GLOBAL WILDLIFE FUND LIMITED</t>
+  </si>
+  <si>
+    <t>SYDNEY WILDLIFE WORLD</t>
+  </si>
+  <si>
+    <t>SYDNEY WILDLIFE WORLD PTY. LIMITED</t>
+  </si>
+  <si>
+    <t>WILD LIFE Conservation Fund</t>
+  </si>
+  <si>
+    <t>Wild Life Hamilton Island</t>
+  </si>
+  <si>
+    <t>ELANOR WILDLIFE PARK FUND</t>
+  </si>
+  <si>
+    <t>ELANOR WILDLIFE PARK MANAGEMENT PTY LIMITED</t>
+  </si>
+  <si>
+    <t>FOUNDATION FOR NATIONAL PARKS AND WILDLIFE</t>
+  </si>
+  <si>
+    <t>HAMILTON ISLAND WILDLIFE PARK</t>
+  </si>
+  <si>
+    <t>The Trustee for Elanor Wildlife Park Fund</t>
+  </si>
+  <si>
+    <t>The Trustee for The Rothwell Wildlife Preservation Trust</t>
+  </si>
+  <si>
+    <t>FOUNDATION FOR NATIONAL PARKS &amp; WILDLIFE (ADMINISTRATOR APPOINTED)</t>
+  </si>
+  <si>
+    <t>HUNTER VALLEY WILDLIFE PARK MANAGEMENT PTY LIMITED</t>
+  </si>
+  <si>
+    <t>The Trustee for Hunter Valley Wildlife Park Property Trust</t>
+  </si>
+  <si>
+    <t>ELITE PEST &amp; TERMITE SOLUTIONS PTY LTD</t>
+  </si>
+  <si>
+    <t>SYDNEY TERMITE AND PEST CONTROL PTY LTD</t>
+  </si>
+  <si>
+    <t>Proven Pest Control and Termite Inspections</t>
+  </si>
+  <si>
+    <t>BLUEWATER CONTROL PTY LTD</t>
+  </si>
+  <si>
+    <t>CONTROL FILMS</t>
+  </si>
+  <si>
+    <t>Compressor Controls Pty Ltd</t>
+  </si>
+  <si>
+    <t>EC Controls</t>
+  </si>
+  <si>
+    <t>INTENTIONAL CONTROL</t>
+  </si>
+  <si>
+    <t>KEYSTONE CONTROLS PTY. LTD.</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN BRAKE CONTROLS PTY LIMITED</t>
+  </si>
+  <si>
+    <t>BROOKFIELD JOHNSON CONTROLS PTY LTD</t>
+  </si>
+  <si>
+    <t>C &amp; D CONTROL CONSULTANTS</t>
+  </si>
+  <si>
+    <t>CAPITAL PROJECT CONTROL PTY LTD</t>
+  </si>
+  <si>
+    <t>COMFORT CONTROL SHUTTERS</t>
+  </si>
+  <si>
+    <t>CONTROL RISKS GROUP PTY LTD</t>
+  </si>
+  <si>
+    <t>DEMITO CREDIT CONTROL</t>
+  </si>
+  <si>
+    <t>ENGINEERED VALVES &amp; CONTROLS</t>
+  </si>
+  <si>
+    <t>Ground Control Cafe</t>
+  </si>
+  <si>
+    <t>IN-CONTROL SERVICES</t>
+  </si>
+  <si>
+    <t>INVESTMENT CONTROL SERVICES PTY. LTD.</t>
+  </si>
+  <si>
+    <t>Lighting Controls Australia</t>
+  </si>
+  <si>
+    <t>PROCESS CONTROL HOLDINGS PTY. LTD.</t>
+  </si>
+  <si>
+    <t>PROJECT CONTROL GROUP PTY. LTD.</t>
+  </si>
+  <si>
+    <t>RISK CONTROL CONSULTING</t>
+  </si>
+  <si>
+    <t>SELEC CONTROLS AUSTRALIA PTY LTD</t>
+  </si>
+  <si>
+    <t>WF ENERGY CONTROLS</t>
+  </si>
+  <si>
+    <t>AAA COMFORT CONTROL SHUTTERS</t>
+  </si>
+  <si>
+    <t>APHR PEST CONTROL SERVICES PTY LTD</t>
+  </si>
+  <si>
+    <t>BROOKFIELD JOHNSON CONTROLS AUSTRALIA PTY LTD</t>
+  </si>
+  <si>
+    <t>ECOFRIENDLY PEST CONTROL AUSTRALIA PTY. LTD.</t>
+  </si>
+  <si>
+    <t>INTEGRATED CONTROL TECHNOLOGY (AUSTRALIA) PTY LTD</t>
+  </si>
+  <si>
+    <t>JOHNSON CONTROLS AUSTRALIA GWS PTY LTD</t>
+  </si>
+  <si>
+    <t>Odour Control Systems International Limited</t>
+  </si>
+  <si>
+    <t>PROJECT CONTROL GROUP HOLDINGS PTY LIMITED</t>
+  </si>
+  <si>
+    <t>SARGENT TRAFFIC CONTROL MANAGEMENT</t>
+  </si>
+  <si>
+    <t>THE TRUSTEE FOR MEDICAL CONTROL CENTRE TRUST</t>
+  </si>
+  <si>
+    <t>TICA DEFAULT TENANCY CONTROL PTY LTD</t>
+  </si>
+  <si>
+    <t>BROOKFIELD JOHNSON CONTROLS PARRAMATTA JUSTICE PTY LTD</t>
+  </si>
+  <si>
+    <t>COMBINED CONTROL CENTRE SOCIAL CLUB</t>
+  </si>
+  <si>
+    <t>RONIN FERAL PEST AND VERMIN CONTROL</t>
+  </si>
+  <si>
+    <t>The Trustee for CORPORATE FLEET CONTROL UNIT TRUST</t>
+  </si>
+  <si>
+    <t>The Trustee for Control B No.1 Trust</t>
+  </si>
+  <si>
+    <t>BROOKFIELD JOHNSON CONTROLS ANZ PTY LTD</t>
+  </si>
+  <si>
+    <t>RACEKITE UNIT TRUST ACCOUNTS CONTROL MANAGEMENT SERVICES</t>
+  </si>
+  <si>
+    <t>SYDNEY TRAIN COMBINED CONTROL CENTRE SOCIAL CLUB</t>
+  </si>
+  <si>
+    <t>GEWS EXTERMINATIONS PTY. LTD.</t>
+  </si>
+  <si>
+    <t>ROAD TRIPPING ESSENTIALS</t>
+  </si>
+  <si>
+    <t>PREVENTION PLUS</t>
+  </si>
+  <si>
+    <t>SUICIDE PREVENTION AUSTRALIA LIMITED</t>
+  </si>
+  <si>
+    <t>crisis prevention institute inc</t>
+  </si>
+  <si>
+    <t>CHILD ABUSE PREVENTION SERVICE</t>
+  </si>
+  <si>
+    <t>GLOBAL WELLNESS &amp; PREVENTION PROTOCOLS PTY LIMITED</t>
+  </si>
+  <si>
+    <t>MISCARRIAGE PREVENTION PROGRAM AUSTRALIA</t>
+  </si>
+  <si>
+    <t>ONLINE HATE PREVENTION INSTITUTE</t>
+  </si>
+  <si>
+    <t>CHILD ABUSE PREVENTION SERVICE (SYDNEY) INC</t>
+  </si>
+  <si>
+    <t>AWARE - SEXUAL HARASSMENT AND SEXUAL MISCONDUCT PREVENTION</t>
+  </si>
+  <si>
+    <t>SUICIDE PREVENTION AUSTRALIA S P A</t>
+  </si>
+  <si>
+    <t>CORPORATE PEST MANAGEMENT PTY LIMITED</t>
+  </si>
+  <si>
+    <t>PERMANENT PEST CONTROL</t>
+  </si>
+  <si>
+    <t>Proven Pest Control</t>
+  </si>
+  <si>
+    <t>SCORPEX PEST MANAGEMENT</t>
+  </si>
+  <si>
+    <t>CERTIFIED PEST MANAGEMENT (NSW) PTY LTD</t>
+  </si>
+  <si>
+    <t>Mid Coast Rural Pest Control</t>
+  </si>
+  <si>
+    <t>PESTO</t>
+  </si>
+  <si>
+    <t>The Trustee for Pasta e Sugo Trust</t>
+  </si>
+  <si>
+    <t>201 Pesto</t>
+  </si>
+  <si>
+    <t>The Trustee for Roden Family Foundation</t>
+  </si>
+  <si>
+    <t>SIMCO STATIC ELIMINATION EQUIPMENT</t>
+  </si>
+  <si>
+    <t>Aussie Bees</t>
+  </si>
+  <si>
+    <t>BUSINESS BEES PTY LTD</t>
+  </si>
+  <si>
+    <t>Bees at Revelwood</t>
+  </si>
+  <si>
+    <t>Birds Bees and Bunnies</t>
+  </si>
+  <si>
+    <t>CLEANING BEES AUSTRALIA PTY LTD</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>NSW</t>
   </si>
   <si>
-    <t>2150</t>
+    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -983,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1017,22 +972,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1040,22 +995,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1063,22 +1018,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1086,22 +1041,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1109,2161 +1064,2092 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D10">
         <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G10" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F11" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G12" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
       <c r="D13">
         <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D14">
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F14" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D15">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D16">
         <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F16" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D17">
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F17" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D18">
         <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F18" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D19">
         <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D20">
         <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D21">
         <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D22">
         <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D23">
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D24">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D25">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D27">
         <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D28">
         <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D29">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G29" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D30">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G30" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D31">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F31" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G31" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D32">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F32" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D33">
         <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F33" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D34">
         <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G34" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D35">
         <v>94</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D36">
         <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F36" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D37">
         <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G37" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D38">
         <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F38" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D39">
         <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D40">
         <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F40" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G40" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D41">
         <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F41" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D42">
         <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D43">
         <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G43" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D44">
         <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G44" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D45">
         <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F45" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D46">
         <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F46" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G46" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D47">
         <v>94</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F47" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G47" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D48">
         <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F48" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G48" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D49">
         <v>94</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F49" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G49" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D50">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F50" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D51">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F51" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G51" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D52">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F52" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D53">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F53" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G53" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D54">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F54" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G54" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D55">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E55" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F55" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G55" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D56">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E56" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F56" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D57">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E57" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F57" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G57" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D58">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F58" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G58" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D59">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F59" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G59" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D60">
         <v>91</v>
       </c>
       <c r="E60" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F60" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G60" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D61">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F61" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G61" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D62">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F62" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G62" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D63">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F63" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G63" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D64">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F64" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G64" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D65">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E65" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F65" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D66">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F66" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G66" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D67">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E67" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F67" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G67" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D68">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E68" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F68" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G68" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D69">
         <v>91</v>
       </c>
       <c r="E69" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F69" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G69" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D70">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E70" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F70" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G70" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D71">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F71" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G71" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D72">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F72" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G72" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D73">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E73" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F73" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G73" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D74">
         <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F74" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G74" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D75">
         <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F75" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G75" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D76">
         <v>91</v>
       </c>
       <c r="E76" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F76" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G76" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D77">
         <v>91</v>
       </c>
       <c r="E77" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F77" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G77" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D78">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E78" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F78" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G78" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D79">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F79" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G79" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D80">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F80" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G80" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D81">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E81" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F81" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G81" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D82">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E82" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F82" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G82" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D83">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E83" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F83" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G83" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D84">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E84" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F84" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G84" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D85">
         <v>91</v>
       </c>
       <c r="E85" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F85" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G85" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D86">
         <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F86" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G86" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D87">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F87" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G87" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D88">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E88" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F88" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G88" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D89">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F89" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G89" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D90">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E90" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F90" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G90" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D91">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E91" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F91" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G91" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D92">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E92" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F92" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G92" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D93">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F93" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G93" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D94">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E94" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F94" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G94" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D95">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G95" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D96">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E96" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G96" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97">
-        <v>88</v>
-      </c>
-      <c r="E97" t="s">
-        <v>201</v>
-      </c>
-      <c r="F97" t="s">
-        <v>202</v>
-      </c>
-      <c r="G97" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" t="s">
-        <v>198</v>
-      </c>
-      <c r="D98">
-        <v>85</v>
-      </c>
-      <c r="E98" t="s">
-        <v>200</v>
-      </c>
-      <c r="F98" t="s">
-        <v>202</v>
-      </c>
-      <c r="G98" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" t="s">
-        <v>199</v>
-      </c>
-      <c r="D99">
-        <v>85</v>
-      </c>
-      <c r="E99" t="s">
-        <v>200</v>
-      </c>
-      <c r="F99" t="s">
-        <v>202</v>
-      </c>
-      <c r="G99" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/abn_data.xlsx
+++ b/abn_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
   <si>
     <t>ABN</t>
   </si>
@@ -37,43 +37,52 @@
     <t>Postcode</t>
   </si>
   <si>
-    <t>14657832025</t>
-  </si>
-  <si>
-    <t>30270464694</t>
-  </si>
-  <si>
-    <t>28600305897</t>
-  </si>
-  <si>
-    <t>88665674831</t>
-  </si>
-  <si>
-    <t>60000168098</t>
-  </si>
-  <si>
-    <t>81000215092</t>
+    <t>96618442050</t>
+  </si>
+  <si>
+    <t>67815028601</t>
+  </si>
+  <si>
+    <t>31955405360</t>
+  </si>
+  <si>
+    <t>55115655290</t>
+  </si>
+  <si>
+    <t>30044808209</t>
+  </si>
+  <si>
+    <t>78650365316</t>
+  </si>
+  <si>
+    <t>48620287046</t>
+  </si>
+  <si>
+    <t>94617622321</t>
+  </si>
+  <si>
+    <t>20257721708</t>
   </si>
   <si>
     <t>17638763461</t>
   </si>
   <si>
+    <t>30126860928</t>
+  </si>
+  <si>
+    <t>13641828990</t>
+  </si>
+  <si>
+    <t>63807012100</t>
+  </si>
+  <si>
     <t>76115177289</t>
   </si>
   <si>
-    <t>24109761300</t>
-  </si>
-  <si>
-    <t>13162808431</t>
-  </si>
-  <si>
-    <t>70129692495</t>
-  </si>
-  <si>
-    <t>42648443494</t>
-  </si>
-  <si>
-    <t>81913830179</t>
+    <t>88651582802</t>
+  </si>
+  <si>
+    <t>64635943289</t>
   </si>
   <si>
     <t>56320370547</t>
@@ -82,67 +91,64 @@
     <t>24497011246</t>
   </si>
   <si>
-    <t>53097302442</t>
-  </si>
-  <si>
-    <t>42496653361</t>
-  </si>
-  <si>
     <t>49947820098</t>
   </si>
   <si>
-    <t>21147934787</t>
-  </si>
-  <si>
-    <t>46335156313</t>
-  </si>
-  <si>
-    <t>96618442050</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>GOLD BLADE BARBERS-BEGA PTY LTD</t>
-  </si>
-  <si>
-    <t>Secure Guard Protection Services</t>
-  </si>
-  <si>
-    <t>GARD PORTFOLIO PTY LTD</t>
-  </si>
-  <si>
-    <t>SECURITY GUARDS AUSTRALIA PTY LTD</t>
-  </si>
-  <si>
-    <t>GOYEN CONTROLS CO PTY LTD</t>
-  </si>
-  <si>
-    <t>ALSTOM PROTECTION &amp; CONTROL</t>
+    <t>VIRUS &amp; BACTERIA BUSTERS- AUSTRALIA</t>
+  </si>
+  <si>
+    <t>The Trustee for Are Aye Bee's Superannuation Fund</t>
+  </si>
+  <si>
+    <t>BUGS OR US TERMITES AND PEST</t>
+  </si>
+  <si>
+    <t>orange towing</t>
+  </si>
+  <si>
+    <t>CARTRIDGE WORLD ORANGE</t>
+  </si>
+  <si>
+    <t>ORANGE TREE AUSTRALIA LTD</t>
+  </si>
+  <si>
+    <t>ORANGE TREE FOUNDATION</t>
+  </si>
+  <si>
+    <t>ORANGE TREE GROUP PTY LTD</t>
+  </si>
+  <si>
+    <t>The Trustee for Orange Diamond Family Trust</t>
   </si>
   <si>
     <t>DAVES PEST CONTROL PTY LTD</t>
   </si>
   <si>
-    <t>EFFECTIVE BUILDING CONTROL</t>
-  </si>
-  <si>
-    <t>GENERAL CONTROL ENGINEERING</t>
-  </si>
-  <si>
-    <t>The Trustee for CONTROL FREQ TRUST</t>
+    <t>NINJA PEST CONTROL</t>
+  </si>
+  <si>
+    <t>PEST SOLUTIONS AND MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Parramatta pest control</t>
   </si>
   <si>
     <t>EFFECTIVE BUILDING &amp; PEST CONTROL</t>
   </si>
   <si>
-    <t>PENTAIR FLOW CONTROL INTERNATIONAL PTY LIMITED</t>
-  </si>
-  <si>
-    <t>RHODES TRAFFIC CONTROL GROUP PTY LTD</t>
-  </si>
-  <si>
-    <t>State Contracts Control Board</t>
+    <t>ENVIRO SPRAY PEST MANAGEMENT</t>
+  </si>
+  <si>
+    <t>OUR TOWN PEST CONTROL</t>
+  </si>
+  <si>
+    <t>PROGUARD PEST AND TERMITE SOLUTIONS PTY LTD</t>
+  </si>
+  <si>
+    <t>Sydney Pest Control Xterminator</t>
   </si>
   <si>
     <t>A&amp;AA Pest Control Service</t>
@@ -151,19 +157,7 @@
     <t>ALL WAYS PEST CONTROL &amp; MANAGEMENT</t>
   </si>
   <si>
-    <t>AUSTRALASIAN PRODUCTION AND INVENTORY CONTROL SOCIETY LIMITED</t>
-  </si>
-  <si>
-    <t>Casino Liquor and Gaming Control Authority</t>
-  </si>
-  <si>
     <t>Jim's Termite &amp; Pest Control (Burwood)</t>
-  </si>
-  <si>
-    <t>Lowbidgee Flood Control &amp; Irrigation District</t>
-  </si>
-  <si>
-    <t>S&amp;V TRAFFIC CONTROL GROUP</t>
   </si>
   <si>
     <t>Jim's Termite &amp; Pest Control (North Manly)</t>
@@ -570,22 +564,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -593,22 +587,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
       <c r="D3">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -616,22 +610,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -639,22 +633,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -662,22 +656,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -685,22 +679,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -708,22 +702,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -731,22 +725,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -754,22 +748,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -777,160 +771,160 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -938,137 +932,137 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/abn_data.xlsx
+++ b/abn_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
   <si>
     <t>ABN</t>
   </si>
@@ -37,130 +37,115 @@
     <t>Postcode</t>
   </si>
   <si>
+    <t>31955405360</t>
+  </si>
+  <si>
+    <t>64635943289</t>
+  </si>
+  <si>
+    <t>17638763461</t>
+  </si>
+  <si>
+    <t>30126860928</t>
+  </si>
+  <si>
+    <t>13641828990</t>
+  </si>
+  <si>
+    <t>63807012100</t>
+  </si>
+  <si>
+    <t>76115177289</t>
+  </si>
+  <si>
+    <t>88651582802</t>
+  </si>
+  <si>
+    <t>56320370547</t>
+  </si>
+  <si>
+    <t>24497011246</t>
+  </si>
+  <si>
+    <t>49947820098</t>
+  </si>
+  <si>
     <t>96618442050</t>
   </si>
   <si>
     <t>67815028601</t>
   </si>
   <si>
-    <t>31955405360</t>
-  </si>
-  <si>
-    <t>55115655290</t>
-  </si>
-  <si>
-    <t>30044808209</t>
-  </si>
-  <si>
-    <t>78650365316</t>
-  </si>
-  <si>
-    <t>48620287046</t>
-  </si>
-  <si>
-    <t>94617622321</t>
-  </si>
-  <si>
-    <t>20257721708</t>
-  </si>
-  <si>
-    <t>17638763461</t>
-  </si>
-  <si>
-    <t>30126860928</t>
-  </si>
-  <si>
-    <t>13641828990</t>
-  </si>
-  <si>
-    <t>63807012100</t>
-  </si>
-  <si>
-    <t>76115177289</t>
-  </si>
-  <si>
-    <t>88651582802</t>
-  </si>
-  <si>
-    <t>64635943289</t>
-  </si>
-  <si>
-    <t>56320370547</t>
-  </si>
-  <si>
-    <t>24497011246</t>
-  </si>
-  <si>
-    <t>49947820098</t>
+    <t>93368644354</t>
+  </si>
+  <si>
+    <t>65605690971</t>
+  </si>
+  <si>
+    <t>98082495903</t>
+  </si>
+  <si>
+    <t>80165332454</t>
   </si>
   <si>
     <t>Active</t>
   </si>
   <si>
-    <t>VIRUS &amp; BACTERIA BUSTERS- AUSTRALIA</t>
+    <t>BUGS OR US TERMITES AND PEST</t>
+  </si>
+  <si>
+    <t>PROGUARD PEST AND TERMITE SOLUTIONS PTY LTD</t>
+  </si>
+  <si>
+    <t>DAVES PEST CONTROL PTY LTD</t>
+  </si>
+  <si>
+    <t>NINJA PEST CONTROL</t>
+  </si>
+  <si>
+    <t>PEST SOLUTIONS AND MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Parramatta pest control</t>
+  </si>
+  <si>
+    <t>EFFECTIVE BUILDING &amp; PEST CONTROL</t>
+  </si>
+  <si>
+    <t>ENVIRO SPRAY PEST MANAGEMENT</t>
+  </si>
+  <si>
+    <t>OUR TOWN PEST CONTROL</t>
+  </si>
+  <si>
+    <t>Sydney Pest Control Xterminator</t>
+  </si>
+  <si>
+    <t>A&amp;AA Pest Control Service</t>
+  </si>
+  <si>
+    <t>ALL WAYS PEST CONTROL &amp; MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Jim's Termite &amp; Pest Control (Burwood)</t>
+  </si>
+  <si>
+    <t>Jim's Termite &amp; Pest Control (North Manly)</t>
   </si>
   <si>
     <t>The Trustee for Are Aye Bee's Superannuation Fund</t>
   </si>
   <si>
-    <t>BUGS OR US TERMITES AND PEST</t>
-  </si>
-  <si>
-    <t>orange towing</t>
-  </si>
-  <si>
-    <t>CARTRIDGE WORLD ORANGE</t>
-  </si>
-  <si>
-    <t>ORANGE TREE AUSTRALIA LTD</t>
-  </si>
-  <si>
-    <t>ORANGE TREE FOUNDATION</t>
-  </si>
-  <si>
-    <t>ORANGE TREE GROUP PTY LTD</t>
-  </si>
-  <si>
-    <t>The Trustee for Orange Diamond Family Trust</t>
-  </si>
-  <si>
-    <t>DAVES PEST CONTROL PTY LTD</t>
-  </si>
-  <si>
-    <t>NINJA PEST CONTROL</t>
-  </si>
-  <si>
-    <t>PEST SOLUTIONS AND MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Parramatta pest control</t>
-  </si>
-  <si>
-    <t>EFFECTIVE BUILDING &amp; PEST CONTROL</t>
-  </si>
-  <si>
-    <t>ENVIRO SPRAY PEST MANAGEMENT</t>
-  </si>
-  <si>
-    <t>OUR TOWN PEST CONTROL</t>
-  </si>
-  <si>
-    <t>PROGUARD PEST AND TERMITE SOLUTIONS PTY LTD</t>
-  </si>
-  <si>
-    <t>Sydney Pest Control Xterminator</t>
-  </si>
-  <si>
-    <t>A&amp;AA Pest Control Service</t>
-  </si>
-  <si>
-    <t>ALL WAYS PEST CONTROL &amp; MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Jim's Termite &amp; Pest Control (Burwood)</t>
-  </si>
-  <si>
-    <t>Jim's Termite &amp; Pest Control (North Manly)</t>
+    <t>CONCISE STRATA INSPECTIONS</t>
+  </si>
+  <si>
+    <t>Building Inspection Training Australia</t>
+  </si>
+  <si>
+    <t>PINK INSPECTION SERVICES (NORTHERN)</t>
+  </si>
+  <si>
+    <t>GLOBAL INDEPENDENT Q C AND INSPECTION PTY. LTD.</t>
   </si>
   <si>
     <t>Y</t>
@@ -530,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,22 +549,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -587,22 +572,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
       <c r="D3">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -610,22 +595,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -633,22 +618,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -656,22 +641,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -679,22 +664,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -702,22 +687,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -725,252 +710,252 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -978,91 +963,22 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23">
-        <v>85</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/abn_data.xlsx
+++ b/abn_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="72">
   <si>
     <t>ABN</t>
   </si>
@@ -35,6 +35,201 @@
   </si>
   <si>
     <t>Postcode</t>
+  </si>
+  <si>
+    <t>25647602131</t>
+  </si>
+  <si>
+    <t>78545727129</t>
+  </si>
+  <si>
+    <t>87630743538</t>
+  </si>
+  <si>
+    <t>59064958434</t>
+  </si>
+  <si>
+    <t>12610169590</t>
+  </si>
+  <si>
+    <t>80661549891</t>
+  </si>
+  <si>
+    <t>79002792163</t>
+  </si>
+  <si>
+    <t>52002892935</t>
+  </si>
+  <si>
+    <t>70051543517</t>
+  </si>
+  <si>
+    <t>59985003523</t>
+  </si>
+  <si>
+    <t>62110496172</t>
+  </si>
+  <si>
+    <t>98058086169</t>
+  </si>
+  <si>
+    <t>72102737664</t>
+  </si>
+  <si>
+    <t>74138537265</t>
+  </si>
+  <si>
+    <t>36108930347</t>
+  </si>
+  <si>
+    <t>64004184124</t>
+  </si>
+  <si>
+    <t>47633532135</t>
+  </si>
+  <si>
+    <t>40629996130</t>
+  </si>
+  <si>
+    <t>50629936661</t>
+  </si>
+  <si>
+    <t>13663774687</t>
+  </si>
+  <si>
+    <t>57617179165</t>
+  </si>
+  <si>
+    <t>21714124426</t>
+  </si>
+  <si>
+    <t>65624563971</t>
+  </si>
+  <si>
+    <t>58654111476</t>
+  </si>
+  <si>
+    <t>80662541742</t>
+  </si>
+  <si>
+    <t>36343654070</t>
+  </si>
+  <si>
+    <t>19622350396</t>
+  </si>
+  <si>
+    <t>13221266401</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>TWO TICKS AUSTRALIA PTY LTD</t>
+  </si>
+  <si>
+    <t>Aussie Bees</t>
+  </si>
+  <si>
+    <t>BUSINESS BEES PTY LTD</t>
+  </si>
+  <si>
+    <t>Bees at Revelwood</t>
+  </si>
+  <si>
+    <t>Birds Bees and Bunnies</t>
+  </si>
+  <si>
+    <t>CLEANING BEES AUSTRALIA PTY LTD</t>
+  </si>
+  <si>
+    <t>THE CARPET MAINTENANCE COMPANY</t>
+  </si>
+  <si>
+    <t>EXOTHERMIC CARPET DRY CLEANING</t>
+  </si>
+  <si>
+    <t>FLOORPAG CARPET WAREHOUSE</t>
+  </si>
+  <si>
+    <t>IRON CARPET CLEAN</t>
+  </si>
+  <si>
+    <t>BEST CARPET CLEANING PYRMONT</t>
+  </si>
+  <si>
+    <t>DOMAINE CARPET &amp; PRESSURE CLEANING</t>
+  </si>
+  <si>
+    <t>Dimeo Carpet &amp; Fabric Care Pty Ltd</t>
+  </si>
+  <si>
+    <t>ECO-DRY CARPET CLEANING</t>
+  </si>
+  <si>
+    <t>HARVEY NORMAN CARPET WAREHOUSE</t>
+  </si>
+  <si>
+    <t>FRUIT BURST!</t>
+  </si>
+  <si>
+    <t>Fruit Passion Pty Ltd</t>
+  </si>
+  <si>
+    <t>Fruit Runn</t>
+  </si>
+  <si>
+    <t>SPC FRUIT</t>
+  </si>
+  <si>
+    <t>AUSSIE FROZEN FRUIT PTY LIMITED</t>
+  </si>
+  <si>
+    <t>FRUIT SALAD TECH PTY LTD</t>
+  </si>
+  <si>
+    <t>IPOH FRUIT BROTHERS PTY LTD</t>
+  </si>
+  <si>
+    <t>POLAR FRUIT INTERNATIONAL PTY LTD</t>
+  </si>
+  <si>
+    <t>SEASONS FRUIT MARKET</t>
+  </si>
+  <si>
+    <t>THE GREAT AUSTRALIAN FRUIT COMPANY</t>
+  </si>
+  <si>
+    <t>WYNYARD FRUIT PASSION</t>
+  </si>
+  <si>
+    <t>BELVOIR FRUIT FARMS AUSTRALIA PTY LTD</t>
+  </si>
+  <si>
+    <t>Brizfresh Wholesale Fruit &amp; Vegetable</t>
+  </si>
+  <si>
+    <t>DUST DISEASES TRIBUNAL</t>
+  </si>
+  <si>
+    <t>PINK DUST DESIGNS</t>
+  </si>
+  <si>
+    <t>DUST &amp; SHINE CLEANING SERVICES PTY LTD</t>
+  </si>
+  <si>
+    <t>icare dust diseases care</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -392,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,6 +616,742 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/abn_data.xlsx
+++ b/abn_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="120">
   <si>
     <t>ABN</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Postcode</t>
   </si>
   <si>
-    <t>25647602131</t>
+    <t>18650343187</t>
   </si>
   <si>
     <t>78545727129</t>
@@ -55,76 +55,145 @@
     <t>80661549891</t>
   </si>
   <si>
-    <t>79002792163</t>
-  </si>
-  <si>
-    <t>52002892935</t>
-  </si>
-  <si>
-    <t>70051543517</t>
-  </si>
-  <si>
-    <t>59985003523</t>
-  </si>
-  <si>
-    <t>62110496172</t>
-  </si>
-  <si>
-    <t>98058086169</t>
-  </si>
-  <si>
-    <t>72102737664</t>
-  </si>
-  <si>
-    <t>74138537265</t>
-  </si>
-  <si>
-    <t>36108930347</t>
-  </si>
-  <si>
-    <t>64004184124</t>
-  </si>
-  <si>
-    <t>47633532135</t>
-  </si>
-  <si>
-    <t>40629996130</t>
-  </si>
-  <si>
-    <t>50629936661</t>
-  </si>
-  <si>
-    <t>13663774687</t>
-  </si>
-  <si>
-    <t>57617179165</t>
-  </si>
-  <si>
-    <t>21714124426</t>
-  </si>
-  <si>
-    <t>65624563971</t>
-  </si>
-  <si>
-    <t>58654111476</t>
-  </si>
-  <si>
-    <t>80662541742</t>
-  </si>
-  <si>
-    <t>36343654070</t>
-  </si>
-  <si>
-    <t>19622350396</t>
-  </si>
-  <si>
-    <t>13221266401</t>
+    <t>58097093117</t>
+  </si>
+  <si>
+    <t>64461352676</t>
+  </si>
+  <si>
+    <t>32939127868</t>
+  </si>
+  <si>
+    <t>81697904106</t>
+  </si>
+  <si>
+    <t>81158968391</t>
+  </si>
+  <si>
+    <t>82002844448</t>
+  </si>
+  <si>
+    <t>65155287657</t>
+  </si>
+  <si>
+    <t>46605277343</t>
+  </si>
+  <si>
+    <t>39143012266</t>
+  </si>
+  <si>
+    <t>85602722314</t>
+  </si>
+  <si>
+    <t>82142432942</t>
+  </si>
+  <si>
+    <t>46086284871</t>
+  </si>
+  <si>
+    <t>78504289818</t>
+  </si>
+  <si>
+    <t>67551643476</t>
+  </si>
+  <si>
+    <t>75103926763</t>
+  </si>
+  <si>
+    <t>93969870078</t>
+  </si>
+  <si>
+    <t>76100751924</t>
+  </si>
+  <si>
+    <t>46103449985</t>
+  </si>
+  <si>
+    <t>25618786968</t>
+  </si>
+  <si>
+    <t>34390709434</t>
+  </si>
+  <si>
+    <t>27667948254</t>
+  </si>
+  <si>
+    <t>89616440567</t>
+  </si>
+  <si>
+    <t>65615234305</t>
+  </si>
+  <si>
+    <t>55347250776</t>
+  </si>
+  <si>
+    <t>58666480646</t>
+  </si>
+  <si>
+    <t>12119877486</t>
+  </si>
+  <si>
+    <t>21001069469</t>
+  </si>
+  <si>
+    <t>92163915008</t>
+  </si>
+  <si>
+    <t>84622814877</t>
+  </si>
+  <si>
+    <t>24661281465</t>
+  </si>
+  <si>
+    <t>92008632764</t>
+  </si>
+  <si>
+    <t>45759672206</t>
+  </si>
+  <si>
+    <t>64003688846</t>
+  </si>
+  <si>
+    <t>13663237215</t>
+  </si>
+  <si>
+    <t>90107744771</t>
+  </si>
+  <si>
+    <t>41583787394</t>
+  </si>
+  <si>
+    <t>13351382911</t>
+  </si>
+  <si>
+    <t>58163142650</t>
+  </si>
+  <si>
+    <t>90565941603</t>
+  </si>
+  <si>
+    <t>22981457948</t>
+  </si>
+  <si>
+    <t>82648434753</t>
+  </si>
+  <si>
+    <t>30180964678</t>
+  </si>
+  <si>
+    <t>86150328840</t>
+  </si>
+  <si>
+    <t>99639079388</t>
+  </si>
+  <si>
+    <t>58629549506</t>
   </si>
   <si>
     <t>Active</t>
   </si>
   <si>
-    <t>TWO TICKS AUSTRALIA PTY LTD</t>
+    <t>GEWS EXTERMINATIONS PTY. LTD.</t>
   </si>
   <si>
     <t>Aussie Bees</t>
@@ -142,88 +211,163 @@
     <t>CLEANING BEES AUSTRALIA PTY LTD</t>
   </si>
   <si>
-    <t>THE CARPET MAINTENANCE COMPANY</t>
-  </si>
-  <si>
-    <t>EXOTHERMIC CARPET DRY CLEANING</t>
-  </si>
-  <si>
-    <t>FLOORPAG CARPET WAREHOUSE</t>
-  </si>
-  <si>
-    <t>IRON CARPET CLEAN</t>
-  </si>
-  <si>
-    <t>BEST CARPET CLEANING PYRMONT</t>
-  </si>
-  <si>
-    <t>DOMAINE CARPET &amp; PRESSURE CLEANING</t>
-  </si>
-  <si>
-    <t>Dimeo Carpet &amp; Fabric Care Pty Ltd</t>
-  </si>
-  <si>
-    <t>ECO-DRY CARPET CLEANING</t>
-  </si>
-  <si>
-    <t>HARVEY NORMAN CARPET WAREHOUSE</t>
-  </si>
-  <si>
-    <t>FRUIT BURST!</t>
-  </si>
-  <si>
-    <t>Fruit Passion Pty Ltd</t>
-  </si>
-  <si>
-    <t>Fruit Runn</t>
-  </si>
-  <si>
-    <t>SPC FRUIT</t>
-  </si>
-  <si>
-    <t>AUSSIE FROZEN FRUIT PTY LIMITED</t>
-  </si>
-  <si>
-    <t>FRUIT SALAD TECH PTY LTD</t>
-  </si>
-  <si>
-    <t>IPOH FRUIT BROTHERS PTY LTD</t>
-  </si>
-  <si>
-    <t>POLAR FRUIT INTERNATIONAL PTY LTD</t>
-  </si>
-  <si>
-    <t>SEASONS FRUIT MARKET</t>
-  </si>
-  <si>
-    <t>THE GREAT AUSTRALIAN FRUIT COMPANY</t>
-  </si>
-  <si>
-    <t>WYNYARD FRUIT PASSION</t>
-  </si>
-  <si>
-    <t>BELVOIR FRUIT FARMS AUSTRALIA PTY LTD</t>
-  </si>
-  <si>
-    <t>Brizfresh Wholesale Fruit &amp; Vegetable</t>
-  </si>
-  <si>
-    <t>DUST DISEASES TRIBUNAL</t>
-  </si>
-  <si>
-    <t>PINK DUST DESIGNS</t>
-  </si>
-  <si>
-    <t>DUST &amp; SHINE CLEANING SERVICES PTY LTD</t>
-  </si>
-  <si>
-    <t>icare dust diseases care</t>
+    <t>PREVENTION PLUS</t>
+  </si>
+  <si>
+    <t>SUICIDE PREVENTION AUSTRALIA LIMITED</t>
+  </si>
+  <si>
+    <t>crisis prevention institute inc</t>
+  </si>
+  <si>
+    <t>CHILD ABUSE PREVENTION SERVICE</t>
+  </si>
+  <si>
+    <t>GLOBAL WELLNESS &amp; PREVENTION PROTOCOLS PTY LIMITED</t>
+  </si>
+  <si>
+    <t>MISCARRIAGE PREVENTION PROGRAM AUSTRALIA</t>
+  </si>
+  <si>
+    <t>ONLINE HATE PREVENTION INSTITUTE</t>
+  </si>
+  <si>
+    <t>ENERGY INSPECTION PTY LTD</t>
+  </si>
+  <si>
+    <t>INSPECTION MANAGER</t>
+  </si>
+  <si>
+    <t>METRO STRATA INSPECTIONS PTY LTD</t>
+  </si>
+  <si>
+    <t>Aussie Pool Inspections</t>
+  </si>
+  <si>
+    <t>DUCT INSPECTION SERVICES</t>
+  </si>
+  <si>
+    <t>elevator inspection services</t>
+  </si>
+  <si>
+    <t>Jim's Building Inspections (Randwick)</t>
+  </si>
+  <si>
+    <t>PINK INSPECTION SERVICES PLATINUM</t>
+  </si>
+  <si>
+    <t>Sydney Strata and Property Inspections</t>
+  </si>
+  <si>
+    <t>CORPORATE PEST MANAGEMENT PTY LIMITED</t>
+  </si>
+  <si>
+    <t>PERMANENT PEST CONTROL</t>
+  </si>
+  <si>
+    <t>Proven Pest Control</t>
+  </si>
+  <si>
+    <t>SCORPEX PEST MANAGEMENT</t>
+  </si>
+  <si>
+    <t>APHR PEST CONTROL SERVICES PTY LTD</t>
+  </si>
+  <si>
+    <t>CERTIFIED PEST MANAGEMENT (NSW) PTY LTD</t>
+  </si>
+  <si>
+    <t>ECOFRIENDLY PEST CONTROL AUSTRALIA PTY. LTD.</t>
+  </si>
+  <si>
+    <t>ELITE PEST &amp; TERMITE SOLUTIONS PTY LTD</t>
+  </si>
+  <si>
+    <t>Mid Coast Rural Pest Control</t>
+  </si>
+  <si>
+    <t>SYDNEY TERMITE AND PEST CONTROL PTY LTD</t>
+  </si>
+  <si>
+    <t>WILD LIFE SYDNEY</t>
+  </si>
+  <si>
+    <t>WILDLIFE WANDERER</t>
+  </si>
+  <si>
+    <t>Wildlife Wanderer</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN WILDLIFE PARKS</t>
+  </si>
+  <si>
+    <t>BLUE MOUNTAINS WILDLIFE</t>
+  </si>
+  <si>
+    <t>FEATHERDALE WILDLIFE PARK</t>
+  </si>
+  <si>
+    <t>GLOBAL WILDLIFE FUND LIMITED</t>
+  </si>
+  <si>
+    <t>SYDNEY WILDLIFE WORLD</t>
+  </si>
+  <si>
+    <t>SYDNEY WILDLIFE WORLD PTY. LIMITED</t>
+  </si>
+  <si>
+    <t>WILD LIFE Conservation Fund</t>
+  </si>
+  <si>
+    <t>Wild Life Hamilton Island</t>
+  </si>
+  <si>
+    <t>ELANOR WILDLIFE PARK FUND</t>
+  </si>
+  <si>
+    <t>ELANOR WILDLIFE PARK MANAGEMENT PTY LIMITED</t>
+  </si>
+  <si>
+    <t>FOUNDATION FOR NATIONAL PARKS AND WILDLIFE</t>
+  </si>
+  <si>
+    <t>HAMILTON ISLAND WILDLIFE PARK</t>
+  </si>
+  <si>
+    <t>The Trustee for Elanor Wildlife Park Fund</t>
+  </si>
+  <si>
+    <t>The Trustee for The Rothwell Wildlife Preservation Trust</t>
+  </si>
+  <si>
+    <t>Birds Eye Roofing</t>
+  </si>
+  <si>
+    <t>THE BIRDS OF PARADISE COLLECTION</t>
+  </si>
+  <si>
+    <t>SYDNEY SANITATION CREW</t>
+  </si>
+  <si>
+    <t>HYGIENE UNLIMITED PTY LTD</t>
+  </si>
+  <si>
+    <t>Dental Hygiene Consultants</t>
+  </si>
+  <si>
+    <t>Eternal Hygiene Services Pty Ltd</t>
+  </si>
+  <si>
+    <t>SYDNEY CITY HYGIENE PTY LTD</t>
+  </si>
+  <si>
+    <t>RB (HYGIENE HOME) AUSTRALIA PTY LTD</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>NSW</t>
@@ -587,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,22 +765,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -644,22 +788,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -667,22 +811,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -690,22 +834,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -713,22 +857,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -736,22 +880,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -759,22 +903,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -782,22 +926,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -805,22 +949,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -828,22 +972,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -851,22 +995,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -874,22 +1018,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -897,459 +1041,1034 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D17">
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D18">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D19">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D20">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D21">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D22">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D23">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D25">
         <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D26">
         <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D27">
         <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D29">
         <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D30">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D31">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D32">
         <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D33">
         <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41">
+        <v>94</v>
+      </c>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50">
+        <v>91</v>
+      </c>
+      <c r="E50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51">
+        <v>94</v>
+      </c>
+      <c r="E51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52">
+        <v>94</v>
+      </c>
+      <c r="E52" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53">
+        <v>94</v>
+      </c>
+      <c r="E53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54">
+        <v>97</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55">
+        <v>94</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56">
+        <v>94</v>
+      </c>
+      <c r="E56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57">
+        <v>94</v>
+      </c>
+      <c r="E57" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58">
+        <v>91</v>
+      </c>
+      <c r="E58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G58" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
